--- a/biology/Zoologie/Galago_orinus/Galago_orinus.xlsx
+++ b/biology/Zoologie/Galago_orinus/Galago_orinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paragalago orinus, Galagoides orinus
 Galago orinus est un galago, un petit primate africain de la famille des Galagidae. Il est endémique des montagnes de l'arc oriental (en), en Tanzanie. C'est l’une des plus petites espèces de galago, qui se distingue par son cri, ainsi que par une queue très touffue et une longue rayure sur le museau.
-En 2016, Galago orinus a été inclus dans la liste des 25 primates les plus menacés au monde[1].
+En 2016, Galago orinus a été inclus dans la liste des 25 primates les plus menacés au monde.
 </t>
         </is>
       </c>
